--- a/STUDENTI disponibili.xlsx
+++ b/STUDENTI disponibili.xlsx
@@ -248,12 +248,6 @@
     <t xml:space="preserve">Software: </t>
   </si>
   <si>
-    <t>ionic</t>
-  </si>
-  <si>
-    <t>googlemap oppure open street map dobbiamo decidere io e te</t>
-  </si>
-  <si>
     <t>Matteo</t>
   </si>
   <si>
@@ -297,13 +291,19 @@
   </si>
   <si>
     <t>Totale</t>
+  </si>
+  <si>
+    <t>framework7</t>
+  </si>
+  <si>
+    <t>openstreetmap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -326,6 +326,12 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -425,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -456,6 +462,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1487,7 +1494,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>73</v>
@@ -1512,7 +1519,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>73</v>
@@ -1556,13 +1563,13 @@
     </row>
     <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>14</v>
@@ -1572,18 +1579,18 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>14</v>
@@ -1593,18 +1600,18 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>14</v>
@@ -1614,18 +1621,18 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>14</v>
@@ -1635,18 +1642,18 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>14</v>
@@ -1656,7 +1663,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="6"/>
       <c r="I43" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1676,7 +1683,7 @@
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>14</v>
@@ -1688,7 +1695,7 @@
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1697,7 +1704,7 @@
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>14</v>
@@ -1709,12 +1716,12 @@
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48">
         <f t="shared" ref="F48:G48" si="0">COUNTIF(F2:F46,"X")</f>
@@ -1741,7 +1748,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" activeCellId="4" sqref="C2 E2 G2 I2 K2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1788,7 +1795,7 @@
         <v>29</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1859,7 +1866,7 @@
         <v>70</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>27</v>
@@ -1902,7 +1909,7 @@
         <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1910,7 +1917,7 @@
         <v>63</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1923,6 +1930,7 @@
       <c r="A15" s="9" t="s">
         <v>65</v>
       </c>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
@@ -1991,7 +1999,7 @@
     </row>
     <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
